--- a/data/tests/cluster_22.xlsx
+++ b/data/tests/cluster_22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rv1364c</t>
+          <t>Rv2383c</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -471,12 +471,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rv1364c MTCY02B10.28c</t>
+          <t>mbtB Rv2383c</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FUNCTION: Primarily acts as an independent SigF regulator that is sensitive to the osmosensory signal, mediating the cross talk of PknD with the SigF regulon (PubMed:30642988). Possesses both phosphatase and kinase activities (PubMed:30642988, PubMed:19700407). The kinase domain functions as a classic anti-sigma factor-like kinase to phosphorylate the anti-anti-sigma factor domain at the canonical regulatory site, and the phosphatase domain antagonizes this activity (PubMed:19700407). {ECO:0000269|PubMed:19700407, ECO:0000269|PubMed:30642988}.</t>
+          <t>FUNCTION: Involved in the initial steps of the mycobactin biosynthetic pathway. Putatively couples activated salicylic acid with serine or threonine and cyclizes this precursor to the hydroxyphenyloxazoline ring system present in this class of siderophores. Essential for growth in macrophages. {ECO:0000269|PubMed:10655517}.</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -486,20 +486,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rv1330c</t>
+          <t>Rv1079</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>pncB1 Rv1330c MTCY130.15c</t>
+          <t>metB Rv1079 MTV017.32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FUNCTION: Involved in the Preiss-Handler pathway, which is a recycling route that permits the salvage of free nicotinamide (NM) and nicotinic acid (Na) involved in the NAD biosynthesis. Catalyzes the synthesis of beta-nicotinate D-ribonucleotide from nicotinate and 5-phospho-D-ribose 1-phosphate at the expense of ATP. It is not able to use nicotinamide. PncB1 contributes to basal NAD level. {ECO:0000269|PubMed:18490451}.</t>
+          <t>FUNCTION: Catalyzes the formation of L-cystathionine from O-succinyl-L-homoserine (OSHS) and L-cysteine, via a gamma-replacement reaction (By similarity). In the absence of thiol, catalyzes gamma-elimination to form 2-oxobutanoate, succinate and ammonia. {ECO:0000250, ECO:0000269|PubMed:19428471}.</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rv1079</t>
+          <t>Rv0548c</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -517,12 +517,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>metB Rv1079 MTV017.32</t>
+          <t>menB Rv0548c</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the formation of L-cystathionine from O-succinyl-L-homoserine (OSHS) and L-cysteine, via a gamma-replacement reaction (By similarity). In the absence of thiol, catalyzes gamma-elimination to form 2-oxobutanoate, succinate and ammonia. {ECO:0000250, ECO:0000269|PubMed:19428471}.</t>
+          <t>FUNCTION: Converts o-succinylbenzoyl-CoA (OSB-CoA) to 1,4-dihydroxy-2-naphthoyl-CoA (DHNA-CoA). {ECO:0000255|HAMAP-Rule:MF_01934, ECO:0000269|PubMed:12909628}.</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rv2383c</t>
+          <t>Rv2763c</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -540,12 +540,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>mbtB Rv2383c</t>
+          <t>folA dfrA Rv2763c MTV002.28c</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FUNCTION: Involved in the initial steps of the mycobactin biosynthetic pathway. Putatively couples activated salicylic acid with serine or threonine and cyclizes this precursor to the hydroxyphenyloxazoline ring system present in this class of siderophores. Essential for growth in macrophages. {ECO:0000269|PubMed:10655517}.</t>
+          <t>FUNCTION: Key enzyme in folate metabolism. Catalyzes an essential reaction for de novo glycine and purine synthesis, and for DNA precursor synthesis.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -555,20 +555,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rv0022c</t>
+          <t>Rv0468</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>whiB5 Rv0022c</t>
+          <t>fadB2 Rv0468</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FUNCTION: A transcription factor that is probably redox-responsive. Probably plays a role in immunomodulation and reactivation after chronic infection. Its induction results in transcription of a number of genes including sigM, and the genes for 2 type VII secretion systems ESX-2 and ESX-4. Seems to negatively regulate its own expression. The apo-form has been shown to act as a protein disulfide reductase. The apo- but not holo-form probably binds DNA. {ECO:0000269|PubMed:19016840, ECO:0000269|PubMed:22733573}.</t>
+          <t>FUNCTION: Catalyzes the NAD-dependent oxidation of beta-hydroxybutyryl-CoA to acetoacetyl-CoA in vitro at pH 10. Also catalyzes the reverse reaction albeit in a lower pH range of 5.5-6.5. The reverse reaction is able to use NADPH as well as NADH. {ECO:0000269|PubMed:20378648}.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -578,20 +578,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rv0902c</t>
+          <t>Rv2384</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>prrB Rv0902c MTCY31.30c</t>
+          <t>mbtA Rv2384</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FUNCTION: Member of the two-component regulatory system PrrB/PrrA that is involved specifically in early intracellular multiplication of Mycobacterium and is essential for its viability (PubMed:11953357, PubMed:22081401). Functions as a sensor protein kinase which is autophosphorylated at a histidine residue and transfers its phosphate group to the conserved aspartic acid residue in the regulatory domain of PrrA (PubMed:14702417, PubMed:29101285). In turn, PrrA binds to the upstream promoter regions of target genes including itself to positively regulate their expression (PubMed:14702417). {ECO:0000269|PubMed:11953357, ECO:0000269|PubMed:14702417, ECO:0000269|PubMed:22081401, ECO:0000269|PubMed:29101285}.</t>
+          <t>FUNCTION: Involved in the initial steps of the mycobactin biosynthetic pathway. Catalyzes the salicylation of the aryl carrier protein (ArCP) domain of MbtB through a two-step reaction. The first step is the ATP-dependent adenylation of salicylate to generate a salicyl-AMP intermediate. The second step is the transfer of this activated salicylate to MbtB to form a salicyl-ArCP domain thioester. {ECO:0000269|PubMed:9831524}.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rv2763c</t>
+          <t>Rv1364c</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -632,12 +632,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>folA dfrA Rv2763c MTV002.28c</t>
+          <t>Rv1364c MTCY02B10.28c</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FUNCTION: Key enzyme in folate metabolism. Catalyzes an essential reaction for de novo glycine and purine synthesis, and for DNA precursor synthesis.</t>
+          <t>FUNCTION: Primarily acts as an independent SigF regulator that is sensitive to the osmosensory signal, mediating the cross talk of PknD with the SigF regulon (PubMed:30642988). Possesses both phosphatase and kinase activities (PubMed:30642988, PubMed:19700407). The kinase domain functions as a classic anti-sigma factor-like kinase to phosphorylate the anti-anti-sigma factor domain at the canonical regulatory site, and the phosphatase domain antagonizes this activity (PubMed:19700407). {ECO:0000269|PubMed:19700407, ECO:0000269|PubMed:30642988}.</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -647,7 +647,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Rv0468</t>
+          <t>Rv3855</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -655,12 +655,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>fadB2 Rv0468</t>
+          <t>ethR etaR Rv3855</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the NAD-dependent oxidation of beta-hydroxybutyryl-CoA to acetoacetyl-CoA in vitro at pH 10. Also catalyzes the reverse reaction albeit in a lower pH range of 5.5-6.5. The reverse reaction is able to use NADPH as well as NADH. {ECO:0000269|PubMed:20378648}.</t>
+          <t>FUNCTION: Involved in the repression of the monooxygenase EthA which is responsible of the formation of the active metabolite of ethionamide (ETH). {ECO:0000269|PubMed:10869356, ECO:0000269|PubMed:10944230}.</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -670,7 +670,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rv2384</t>
+          <t>Rv1348</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -678,12 +678,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>mbtA Rv2384</t>
+          <t>irtA Rv1348 MTCY02B10.12</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FUNCTION: Involved in the initial steps of the mycobactin biosynthetic pathway. Catalyzes the salicylation of the aryl carrier protein (ArCP) domain of MbtB through a two-step reaction. The first step is the ATP-dependent adenylation of salicylate to generate a salicyl-AMP intermediate. The second step is the transfer of this activated salicylate to MbtB to form a salicyl-ArCP domain thioester. {ECO:0000269|PubMed:9831524}.</t>
+          <t>FUNCTION: Part of the ABC transporter complex IrtAB involved in the import of iron-bound mycobactin (Fe-MBT) and carboxymycobactin (Fe-cMBT) (PubMed:16385031, PubMed:19948799) (By similarity). Mycobactins are then reduced by the siderophore interaction domain to facilitate iron release in the bacterial cell (By similarity). Transmembrane domains (TMD) form a pore in the membrane and the ATP-binding domain (NBD) is responsible for energy generation (By similarity). Required for replication in human macrophages and in mouse lungs (PubMed:16385031). {ECO:0000250|UniProtKB:G7CBF5, ECO:0000269|PubMed:16385031, ECO:0000269|PubMed:19948799}.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -693,7 +693,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rv0712</t>
+          <t>Rv1330c</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -701,12 +701,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rv0712</t>
+          <t>pncB1 Rv1330c MTCY130.15c</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FUNCTION: Oxidase that catalyzes the conversion of cysteine to 3-oxoalanine on target proteins. 3-oxoalanine modification, which is also named formylglycine (fGly), occurs in the maturation of arylsulfatases and some alkaline phosphatases that use the hydrated form of 3-oxoalanine as a catalytic nucleophile. {ECO:0000269|PubMed:18390551}.</t>
+          <t>FUNCTION: Involved in the Preiss-Handler pathway, which is a recycling route that permits the salvage of free nicotinamide (NM) and nicotinic acid (Na) involved in the NAD biosynthesis. Catalyzes the synthesis of beta-nicotinate D-ribonucleotide from nicotinate and 5-phospho-D-ribose 1-phosphate at the expense of ATP. It is not able to use nicotinamide. PncB1 contributes to basal NAD level. {ECO:0000269|PubMed:18490451}.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -716,20 +716,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Rv3855</t>
+          <t>Rv0712</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ethR etaR Rv3855</t>
+          <t>Rv0712</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FUNCTION: Involved in the repression of the monooxygenase EthA which is responsible of the formation of the active metabolite of ethionamide (ETH). {ECO:0000269|PubMed:10869356, ECO:0000269|PubMed:10944230}.</t>
+          <t>FUNCTION: Oxidase that catalyzes the conversion of cysteine to 3-oxoalanine on target proteins. 3-oxoalanine modification, which is also named formylglycine (fGly), occurs in the maturation of arylsulfatases and some alkaline phosphatases that use the hydrated form of 3-oxoalanine as a catalytic nucleophile. {ECO:0000269|PubMed:18390551}.</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -739,20 +739,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Rv1348</t>
+          <t>Rv0022c</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>irtA Rv1348 MTCY02B10.12</t>
+          <t>whiB5 Rv0022c</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FUNCTION: Part of the ABC transporter complex IrtAB involved in the import of iron-bound mycobactin (Fe-MBT) and carboxymycobactin (Fe-cMBT) (PubMed:16385031, PubMed:19948799) (By similarity). Mycobactins are then reduced by the siderophore interaction domain to facilitate iron release in the bacterial cell (By similarity). Transmembrane domains (TMD) form a pore in the membrane and the ATP-binding domain (NBD) is responsible for energy generation (By similarity). Required for replication in human macrophages and in mouse lungs (PubMed:16385031). {ECO:0000250|UniProtKB:G7CBF5, ECO:0000269|PubMed:16385031, ECO:0000269|PubMed:19948799}.</t>
+          <t>FUNCTION: A transcription factor that is probably redox-responsive. Probably plays a role in immunomodulation and reactivation after chronic infection. Its induction results in transcription of a number of genes including sigM, and the genes for 2 type VII secretion systems ESX-2 and ESX-4. Seems to negatively regulate its own expression. The apo-form has been shown to act as a protein disulfide reductase. The apo- but not holo-form probably binds DNA. {ECO:0000269|PubMed:19016840, ECO:0000269|PubMed:22733573}.</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -762,7 +762,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rv1347c</t>
+          <t>Rv0902c</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -770,12 +770,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>mbtK Rv1347c MTCY02B10.11c</t>
+          <t>prrB Rv0902c MTCY31.30c</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FUNCTION: Acyltransferase required for the direct transfer of medium- to long-chain fatty acyl moieties from a carrier protein (MbtL) on to the epsilon-amino group of lysine residue in the mycobactin core. {ECO:0000269|PubMed:16461464}.</t>
+          <t>FUNCTION: Member of the two-component regulatory system PrrB/PrrA that is involved specifically in early intracellular multiplication of Mycobacterium and is essential for its viability (PubMed:11953357, PubMed:22081401). Functions as a sensor protein kinase which is autophosphorylated at a histidine residue and transfers its phosphate group to the conserved aspartic acid residue in the regulatory domain of PrrA (PubMed:14702417, PubMed:29101285). In turn, PrrA binds to the upstream promoter regions of target genes including itself to positively regulate their expression (PubMed:14702417). {ECO:0000269|PubMed:11953357, ECO:0000269|PubMed:14702417, ECO:0000269|PubMed:22081401, ECO:0000269|PubMed:29101285}.</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -785,7 +785,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rv2887</t>
+          <t>Rv1347c</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -793,12 +793,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rv2887 MTCY274.18</t>
+          <t>mbtK Rv1347c MTCY02B10.11c</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FUNCTION: Represses expression of the HQNO methyltransferase htm gene (Rv0560c) by binding to its promoter region (PubMed:26303802, PubMed:27432954, PubMed:28743871). Also represses the expression of at least five other genes, including the methyltransferase Rv0558 (PubMed:26303802). Binds salicylate (SA), para-aminosalicylic acid (PAS) and gemfibrozil (PubMed:28743871). {ECO:0000269|PubMed:26303802, ECO:0000269|PubMed:27432954, ECO:0000269|PubMed:28743871}.</t>
+          <t>FUNCTION: Acyltransferase required for the direct transfer of medium- to long-chain fatty acyl moieties from a carrier protein (MbtL) on to the epsilon-amino group of lysine residue in the mycobactin core. {ECO:0000269|PubMed:16461464}.</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -808,23 +808,1147 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Rv0548c</t>
+          <t>Rv2887</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>menB Rv0548c</t>
+          <t>Rv2887 MTCY274.18</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FUNCTION: Converts o-succinylbenzoyl-CoA (OSB-CoA) to 1,4-dihydroxy-2-naphthoyl-CoA (DHNA-CoA). {ECO:0000255|HAMAP-Rule:MF_01934, ECO:0000269|PubMed:12909628}.</t>
+          <t>FUNCTION: Represses expression of the HQNO methyltransferase htm gene (Rv0560c) by binding to its promoter region (PubMed:26303802, PubMed:27432954, PubMed:28743871). Also represses the expression of at least five other genes, including the methyltransferase Rv0558 (PubMed:26303802). Binds salicylate (SA), para-aminosalicylic acid (PAS) and gemfibrozil (PubMed:28743871). {ECO:0000269|PubMed:26303802, ECO:0000269|PubMed:27432954, ECO:0000269|PubMed:28743871}.</t>
         </is>
       </c>
       <c r="E17" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Rv0900</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>arfB Rv0900 MTCY31.28</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>FUNCTION: Required for wild-type expression of ArfA and ammonia secretion, not however part of an ammonia transporter. {ECO:0000269|PubMed:21410778}.</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Rv0202c</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>mmpL11 Rv0202c MTV033.10c</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>FUNCTION: Part of a heme-iron acquisition system. Receives heme from the heme-binding protein Rv0203 and transports it into the mycobacterial cell. Contributes to virulence. {ECO:0000269|PubMed:15908378, ECO:0000269|PubMed:21383189, ECO:0000269|PubMed:23760277}.; FUNCTION: Could also transport the mycolic acid-containing lipids monomeromycolyl diacylglycerol (MMDAG) and mycolate ester wax (WE) to the bacterial surface. {ECO:0000303|PubMed:23836904}.</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Rv3696c</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>glpK Rv3696c MTV025.044c</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>FUNCTION: Key enzyme in the regulation of glycerol uptake and metabolism. Catalyzes the phosphorylation of glycerol to yield sn-glycerol 3-phosphate. {ECO:0000255|HAMAP-Rule:MF_00186}.</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Rv0221</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Rv0221 MTCY08D5.16</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>FUNCTION: Catalyzes the terminal and only committed step in triacylglycerol synthesis by using diacylglycerol and fatty acyl CoA as substrates. Required for storage lipid synthesis. {ECO:0000250|UniProtKB:P9WKC9}.; FUNCTION: Upon expression in E.coli functions weakly as a triacylglycerol synthase, making triacylglycerol (TG) from diolein and long-chain fatty acyl-CoA. Has very weak wax synthase activity, incorporating palmityl alcohol into wax esters in the presence of palmitoyl-CoA. {ECO:0000269|PubMed:15262939}.</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Rv3316</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>sdhC Rv3316 RVBD_3316 LH57_18125 P425_03457</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>FUNCTION: Membrane-anchoring subunit of succinate dehydrogenase 2 (Sdh2). Sdh2 may catalyze the two-electron oxidation of succinate to fumarate with a corresponding reduction of quinone to quinol under low oxygen conditions, when the primary aerobic succinate dehydrogenase (Sdh1) is inhibited. Sdh2 seems to be the generator of the proton motive force (PMF) under hypoxia. {ECO:0000305|PubMed:25412183}.</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Rv2379c</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>mbtF Rv2379c</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Rv2378c</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>mbtG Rv2378c</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>FUNCTION: Flavoprotein monooxygenase required for N-hydroxylation of the two acylated lysine residues during mycobactin assembly, thus producing the hydroxamate groups necessary for iron sequestration. Is also able, but less efficiently, to hydroxylate L-lysine (non acylated) in vitro. {ECO:0000269|PubMed:16461464}.</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Rv2459</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>jefA Rv2459</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>FUNCTION: Involved in resistance to ethambutol and isoniazid. {ECO:0000269|PubMed:20716818}.</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Rv3324c</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>moaC3 Rv3324c MTV016.24c</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>FUNCTION: Catalyzes the conversion of (8S)-3',8-cyclo-7,8-dihydroguanosine 5'-triphosphate to cyclic pyranopterin monophosphate (cPMP). {ECO:0000255|HAMAP-Rule:MF_01224}.</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Rv2380c</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>mbtE Rv2380c</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Rv2103c</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vapC37 Rv2103c</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>FUNCTION: Probable toxic component of a type II toxin-antitoxin (TA) system. An RNase. Upon expression in M.smegmatis inhibits colony formation. The putative cognate antitoxin is VapB37. {ECO:0000269|PubMed:20011113}.</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Rv3318</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>sdhA Rv3318</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Rv1623c</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>cydA Rv1623c</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rv3319</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>sdhB Rv3319</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Rv2588c</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>yajC Rv2588c MTCY227.13</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>FUNCTION: The SecYEG-SecDF-YajC-YidC holo-translocon (HTL) protein secretase/insertase is a supercomplex required for protein secretion, insertion of proteins into membranes, and assembly of membrane protein complexes. While the SecYEG complex is essential for assembly of a number of proteins and complexes, the SecDF-YajC-YidC subcomplex facilitates these functions. {ECO:0000250|UniProtKB:P0ADZ7}.</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Rv1178</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Rv1178</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Rv0777</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>purB Rv0777</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Rv0935</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>pstC1 pstC Rv0935 MTCY08D9.04c</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>FUNCTION: Part of the ABC transporter complex PstSACB involved in phosphate import; probably responsible for the translocation of the substrate across the membrane. {ECO:0000305|PubMed:20933472}.</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Rv1738</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Rv1738 MTCY04C12.23</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Rv1109c</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Rv1109c</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Rv2199c</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ctaF Rv2199c MTCY190.10c</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>FUNCTION: Part of cytochrome c oxidase, its function is unknown. {ECO:0000250}.</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Rv0717</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>rpsZ rpsN1 Rv0717 MTCY210.36</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>FUNCTION: Binds 16S rRNA, required for the assembly of 30S particles and may also be responsible for determining the conformation of the 16S rRNA at the A site. {ECO:0000255|HAMAP-Rule:MF_01364}.</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Rv2127</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ansP1 ansP Rv2127 MTCY261.26</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Rv2896c</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>dprA Rv2896c MTCY274.27c</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>FUNCTION: May help load RecA onto ssDNA (By similarity). {ECO:0000250|UniProtKB:Q8DPI7}.</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Rv1753c</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PPE24 Rv1753c</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Rv0857</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Rv0857</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Rv2738c</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Rv2738c</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Rv2052c</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Rv2052c</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Rv0593</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>lprL Rv0593</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Rv3317</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>sdhD Rv3317</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Rv1799</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>lppT Rv1799</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Rv3160c</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Rv3160c</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Rv2381c</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>mbtD Rv2381c</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Rv3774</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>echA21 Rv3774</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Rv0135c</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Rv0135c</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Rv1865c</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Rv1865c</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Rv3562</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>fadE31 Rv3562</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Rv0547c</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Rv0547c</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Rv2843</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Rv2843</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Rv1378c</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Rv1378c</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Rv2728c</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Rv2728c</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Rv0162c</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>adhE1 Rv0162c</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Rv2377c</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>mbtH Rv2377c MTCY27.03</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>FUNCTION: Could be involved in mycobactin synthesis. {ECO:0000250}.</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Rv2475c</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Rv2475c</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Rv1920</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Rv1920</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Rv1255c</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Rv1255c MTCY50.27</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Rv0520</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Rv0520</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Rv2772c</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Rv2772c</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Rv2571c</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Rv2571c MTCY227.30</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Rv2079</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Rv2079 MTCY49.18</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Rv1772</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Rv1772</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Rv2670c</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Rv2670c</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Rv0923c</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Rv0923c</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Rv1367c</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Rv1367c MTCY02B10.31c MTCY02B12.01c</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Rv3037c</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Rv3037c</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Rv1620c</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>cydC Rv1620c</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="n">
         <v>22</v>
       </c>
     </row>
